--- a/va_facility_data_2025-02-20/East Los Angeles VA Clinic - Facility Data.xlsx"; filename*=UTF-8''East%20Los%20Angeles%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/East Los Angeles VA Clinic - Facility Data.xlsx"; filename*=UTF-8''East%20Los%20Angeles%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb0c4602c72f542c6a4cd4cc35a694f85"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra0e1756c567d4e92a56706d8f44bc79d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rde70f13d43504184a4c2e083c9ff9ccf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R10f643c0345f4b2d8993ad21d83e641b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1ab58483c95849a38dca5cf2376ea25b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5e7c393d61ea4df88b778a542939d93f"/>
   </x:sheets>
 </x:workbook>
 </file>
